--- a/01 焊盘制作及命名规则/01_焊盘制作及命名规则 _备份.xlsx
+++ b/01 焊盘制作及命名规则/01_焊盘制作及命名规则 _备份.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表贴焊盘" sheetId="2" r:id="rId1"/>
     <sheet name="通孔焊盘" sheetId="1" r:id="rId2"/>
-    <sheet name="过孔" sheetId="3" r:id="rId3"/>
+    <sheet name="安装孔" sheetId="5" r:id="rId3"/>
+    <sheet name="过孔" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
   <si>
     <t>Regular Pad</t>
   </si>
@@ -177,6 +178,42 @@
   </si>
   <si>
     <t>smdMM_NNob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形安装孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holeMM_NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viaMM_NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外方内圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外圆内圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrMMcir_NNcir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thrMMsq_NNcir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +326,33 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,31 +365,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -622,22 +671,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -699,22 +748,22 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="8" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -725,30 +774,30 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -759,30 +808,30 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -793,7 +842,7 @@
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
@@ -802,7 +851,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
@@ -811,7 +860,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
@@ -838,50 +887,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="5" width="20.77734375" customWidth="1"/>
+    <col min="7" max="8" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -898,141 +948,163 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="13" t="s">
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="G9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="13" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="14" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1052,37 +1124,259 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26.77734375" customWidth="1"/>
     <col min="3" max="5" width="20.77734375" customWidth="1"/>
+    <col min="7" max="8" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="5" width="20.77734375" customWidth="1"/>
+    <col min="7" max="8" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1095,7 +1389,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +1406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1123,7 +1417,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1134,7 +1428,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1145,17 +1439,23 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1164,18 +1464,26 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1184,18 +1492,22 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1205,8 +1517,8 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1214,8 +1526,8 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1223,8 +1535,8 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
